--- a/docs/source/recursos/milpa_apic/tabla_cat_api_bio_usv_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_cat_api_bio_usv_cobertura_usv_svi_16cats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C850C17C-8196-4B05-A028-94FFAAF757A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1949EB-DB2D-4849-BD1C-87CB230152E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23550" yWindow="1080" windowWidth="15375" windowHeight="11385" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
   </bookViews>
@@ -153,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,18 +477,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
@@ -499,7 +502,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -513,7 +516,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -527,7 +530,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -541,7 +544,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -555,7 +558,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -569,7 +572,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -583,7 +586,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -597,7 +600,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -611,7 +614,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -625,7 +628,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -639,7 +642,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -653,7 +656,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -667,7 +670,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" t="s">
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -695,7 +698,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -709,7 +712,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -723,7 +726,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -741,24 +744,14 @@
     <sortCondition descending="1" ref="D2:D18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C157" xr:uid="{21522FF9-337A-4A30-846B-7D4A901D5414}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{29413129-7ADF-408C-BD15-66BC6F8572FA}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21522FF9-337A-4A30-846B-7D4A901D5414}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C19:C157</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29413129-7ADF-408C-BD15-66BC6F8572FA}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/source/recursos/milpa_apic/tabla_cat_api_bio_usv_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_cat_api_bio_usv_cobertura_usv_svi_16cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1949EB-DB2D-4849-BD1C-87CB230152E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCACE1-4CA7-4D5C-9FBB-06B8C7867512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23550" yWindow="1080" windowWidth="15375" windowHeight="11385" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Vegetación de petén</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Sin vegetación</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,16 +489,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
